--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Python Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D940B2-B653-447C-BC2D-242FF9C960A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885B4542-3D4F-4D10-800C-FDB5E5F1DA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
   <dimension ref="B1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -382,7 +382,7 @@
         <v>45292</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
